--- a/data/trans_media/IQ09_M-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ09_M-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,43</t>
+          <t>1,13; 4,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,33</t>
+          <t>1,23; 5,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,17 +749,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,14</t>
+          <t>0,96; 4,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,94</t>
+          <t>1,48; 5,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,97</t>
+          <t>0,5; 2,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,41; 3,57</t>
+          <t>1,4; 3,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,41</t>
+          <t>1,81; 4,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,42</t>
+          <t>0,62; 3,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,01</t>
+          <t>0,94; 4,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,93</t>
+          <t>1,08; 3,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,59</t>
+          <t>0,4; 3,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,73</t>
+          <t>0,0; 3,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,81</t>
+          <t>0,53; 2,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,6</t>
+          <t>0,45; 1,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,74</t>
+          <t>0,18; 1,81</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,57</t>
+          <t>0,96; 3,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,86</t>
+          <t>0,66; 2,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,54</t>
+          <t>0,58; 2,47</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,33</t>
+          <t>0,31; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,19</t>
+          <t>0,56; 4,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 4,99</t>
+          <t>0,35; 4,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,73</t>
+          <t>0,41; 2,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,42</t>
+          <t>0,46; 3,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,07; 1,2</t>
+          <t>0,07; 1,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,91</t>
+          <t>0,17; 3,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,04</t>
+          <t>0,7; 3,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,52</t>
+          <t>0,49; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,36</t>
+          <t>0,68; 2,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,79</t>
+          <t>0,23; 2,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,6</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,33</t>
+          <t>0,0; 3,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,02</t>
+          <t>0,0; 6,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 4,91</t>
+          <t>0,58; 4,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,06</t>
+          <t>0,65; 2,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,41</t>
+          <t>0,07; 3,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,04</t>
+          <t>0,18; 2,0</t>
         </is>
       </c>
     </row>
@@ -1284,37 +1284,37 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,35</t>
+          <t>0,45; 2,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,69</t>
+          <t>1,16; 2,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,84</t>
+          <t>0,98; 2,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,44</t>
+          <t>0,76; 2,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,01</t>
+          <t>0,26; 1,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,03</t>
+          <t>0,72; 2,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,7</t>
+          <t>0,72; 2,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,22 +1324,22 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,85</t>
+          <t>0,55; 1,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,1</t>
+          <t>1,09; 2,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,39</t>
+          <t>1,06; 2,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,84</t>
+          <t>0,76; 1,82</t>
         </is>
       </c>
     </row>
